--- a/Documentação/Backlog Nuna É So Café.xlsx
+++ b/Documentação/Backlog Nuna É So Café.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vagne\OneDrive\Documentos\Projetos\Repósitórios GitHub\Pessoal\Nunca_E_So_Cafe\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6826559-6E36-44C6-BF49-902D8CC3F57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F578D3FE-D638-49A3-8CDF-BCFCA2764E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{66147315-2B54-425F-938E-0D50812079F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66147315-2B54-425F-938E-0D50812079F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
+    <sheet name="Tabela Dinamica" sheetId="4" r:id="rId2"/>
+    <sheet name="Tabelas para calculo" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="13" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
   <si>
     <t>Requisito</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Pagina de Usuário</t>
   </si>
   <si>
-    <t>Área para email, nome, sobrenome, CEP,numero do logradouro, processo de café preferido, senha e confirmação de senha</t>
-  </si>
-  <si>
     <t>Pagina com nome do usuário, processo preferido, local para seleção de interesses</t>
   </si>
   <si>
@@ -224,6 +221,24 @@
   </si>
   <si>
     <t>Soma de Fibonnaci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projeto </t>
+  </si>
+  <si>
+    <t>Criação do logo</t>
+  </si>
+  <si>
+    <t>Criação do logo do site</t>
+  </si>
+  <si>
+    <t>Área para email, nome, sobrenome, CEP,numero do logradouro, complemento, processo de café preferido, senha e confirmação de senha</t>
+  </si>
+  <si>
+    <t>Apresentação</t>
+  </si>
+  <si>
+    <t>Apresentação do projeto para equipe sócio emocional e equipe técnica</t>
   </si>
 </sst>
 </file>
@@ -308,20 +323,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="vagne" refreshedDate="45221.485278587963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="14" xr:uid="{992CE8B1-D22A-4032-9D88-64637FF12853}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="vagne" refreshedDate="45221.61838900463" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{F2D3C033-5BC4-40F8-8DF4-4314C3FF7789}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I15" sheet="Backlog"/>
+    <worksheetSource ref="A1:I17" sheet="Backlog"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Área" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="4">
         <s v="Site"/>
         <s v="Site "/>
         <s v="Projeto"/>
+        <s v="Projeto "/>
       </sharedItems>
     </cacheField>
     <cacheField name="Requisito" numFmtId="0">
-      <sharedItems count="14">
+      <sharedItems count="16">
         <s v="Pagina Inicial"/>
         <s v="Pagina História"/>
         <s v="Pagina Processos"/>
@@ -336,6 +352,8 @@
         <s v="Documentação do projeto"/>
         <s v="Diagrama de negócio"/>
         <s v="Trello"/>
+        <s v="Criação do logo"/>
+        <s v="Apresentação"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Partes" numFmtId="0">
@@ -347,7 +365,7 @@
     <cacheField name="Fibonnaci" numFmtId="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="21"/>
     </cacheField>
-    <cacheField name="Funcional" numFmtId="1">
+    <cacheField name="Funcional" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Classificação" numFmtId="0">
@@ -372,7 +390,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -453,11 +471,11 @@
   <r>
     <x v="1"/>
     <x v="7"/>
-    <s v="Área para email, nome, sobrenome, CEP,numero do logradouro, processo de café preferido, senha e confirmação de senha"/>
+    <s v="Área para email, nome, sobrenome, CEP,numero do logradouro, complemento, processo de café preferido, senha e confirmação de senha"/>
     <s v="G"/>
     <n v="13"/>
     <s v="Funcional"/>
-    <s v="Desejável"/>
+    <s v="Essencial"/>
     <n v="2"/>
     <x v="0"/>
   </r>
@@ -527,25 +545,50 @@
     <n v="1"/>
     <x v="1"/>
   </r>
+  <r>
+    <x v="3"/>
+    <x v="14"/>
+    <s v="Criação do logo do site"/>
+    <s v="p"/>
+    <n v="5"/>
+    <m/>
+    <s v="Importante"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <s v="Apresentação do projeto para equipe sócio emocional e equipe técnica"/>
+    <s v="G"/>
+    <n v="13"/>
+    <m/>
+    <s v="Essencial"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00739C6A-9C3C-4F43-9B3A-BB2B897E5115}" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CA5A4CD-0049-4CF7-BE5C-D5166CAA1C7E}" name="Tabela dinâmica2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisPage" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="2"/>
+        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+      <items count="17">
+        <item x="15"/>
         <item x="10"/>
         <item x="9"/>
+        <item x="14"/>
         <item x="12"/>
         <item x="11"/>
         <item x="8"/>
@@ -578,7 +621,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="17">
     <i>
       <x/>
     </i>
@@ -620,6 +663,12 @@
     </i>
     <i>
       <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -954,17 +1003,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0864F8-286A-4F77-A735-687153E69A69}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+    <col min="3" max="3" width="122.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
@@ -990,10 +1039,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -1013,18 +1062,21 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3">
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
@@ -1039,16 +1091,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3">
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1062,22 +1114,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3">
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1094,19 +1146,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3">
         <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1117,22 +1169,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3">
         <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1143,22 +1195,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1169,22 +1221,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1198,19 +1250,19 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3">
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1224,19 +1276,19 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3">
         <v>21</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1247,22 +1299,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
         <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1270,23 +1322,23 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1297,23 +1349,23 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3">
         <v>21</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1321,23 +1373,23 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1345,29 +1397,78 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="3">
         <v>8</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1376,12 +1477,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17128A92-E99D-4E82-A6FA-3492BBDDA0CA}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A2327F-FA36-477F-B924-C7B3897C7B56}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1389,7 +1488,6 @@
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,118 +1495,118 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="9">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9">
+        <v>13</v>
+      </c>
       <c r="D5" s="9">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9">
-        <v>8</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D8" s="9">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D9" s="9">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9">
+        <v>21</v>
+      </c>
       <c r="D10" s="9">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11" s="9">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9">
         <v>8</v>
@@ -1520,88 +1618,112 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D13" s="9">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9">
-        <v>13</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9"/>
       <c r="D14" s="9">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D15" s="9">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="9">
-        <v>8</v>
-      </c>
-      <c r="C16" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9">
+        <v>13</v>
+      </c>
       <c r="D16" s="9">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D17" s="9">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9">
-        <v>5</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B18" s="9">
+        <v>8</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="9">
+        <v>45</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="9">
         <v>29</v>
       </c>
-      <c r="C19" s="9">
-        <v>112</v>
-      </c>
-      <c r="D19" s="9">
-        <v>141</v>
+      <c r="C21" s="9">
+        <v>130</v>
+      </c>
+      <c r="D21" s="9">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1736,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K15" sqref="K15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,31 +1750,31 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2">
-        <f>SUM(Backlog!E2:E15)</f>
-        <v>141</v>
+        <f>SUM(Backlog!E:E)</f>
+        <v>159</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1661,32 +1783,32 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>Planilha2!B1/Planilha2!B2</f>
-        <v>28.2</v>
+        <f>'Tabelas para calculo'!B1/'Tabelas para calculo'!B2</f>
+        <v>31.8</v>
       </c>
       <c r="F2" s="2">
         <f>B1-E2</f>
-        <v>112.8</v>
+        <v>127.2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <f>B1/B2</f>
-        <v>28.2</v>
+        <v>31.8</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <f>Planilha2!B1/Planilha2!B2</f>
-        <v>28.2</v>
+        <f>'Tabelas para calculo'!B1/'Tabelas para calculo'!B2</f>
+        <v>31.8</v>
       </c>
       <c r="F3" s="2">
         <f>F2-E3</f>
-        <v>84.6</v>
+        <v>95.4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1694,12 +1816,12 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <f>Planilha2!B1/Planilha2!B2</f>
-        <v>28.2</v>
+        <f>'Tabelas para calculo'!B1/'Tabelas para calculo'!B2</f>
+        <v>31.8</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F6" si="0">F3-E4</f>
-        <v>56.399999999999991</v>
+        <v>63.600000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1707,12 +1829,12 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <f>Planilha2!B1/Planilha2!B2</f>
-        <v>28.2</v>
+        <f>'Tabelas para calculo'!B1/'Tabelas para calculo'!B2</f>
+        <v>31.8</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>28.199999999999992</v>
+        <v>31.800000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1720,8 +1842,8 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <f>Planilha2!B1/Planilha2!B2</f>
-        <v>28.2</v>
+        <f>'Tabelas para calculo'!B1/'Tabelas para calculo'!B2</f>
+        <v>31.8</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
